--- a/biology/Zoologie/Haemaphysalis_semermis/Haemaphysalis_semermis.xlsx
+++ b/biology/Zoologie/Haemaphysalis_semermis/Haemaphysalis_semermis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Haemaphysalis semermis est une espèce de tique du genre Haemaphysalis décrite par Neumann en 1901[2]. Cette tique se trouve en Asie du Sud-Est, en Thaïlande, en Malaisie, à Sumatra et dans le Kalimantan[3].
-Les adultes parasitent les grands animaux sauvages asiatiques[3], tel la Panthère nébuleuse[4] mais également les chiens, tandis que les immatures sont plutôt présentes sur les petits mammifères et notamment les rats[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haemaphysalis semermis est une espèce de tique du genre Haemaphysalis décrite par Neumann en 1901. Cette tique se trouve en Asie du Sud-Est, en Thaïlande, en Malaisie, à Sumatra et dans le Kalimantan.
+Les adultes parasitent les grands animaux sauvages asiatiques, tel la Panthère nébuleuse mais également les chiens, tandis que les immatures sont plutôt présentes sur les petits mammifères et notamment les rats.
 </t>
         </is>
       </c>
